--- a/Word skill.xlsx
+++ b/Word skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xre22\OneDrive\Desktop\Data sciense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45908AC-FFD1-4493-BBF9-D7C491E50806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACE2931-E900-4353-A9CC-D39AE47587C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1740" windowWidth="13140" windowHeight="8925" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
+    <workbookView xWindow="15660" yWindow="4065" windowWidth="13140" windowHeight="8925" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="428">
   <si>
     <t>Asymmetrical</t>
   </si>
@@ -1212,6 +1212,114 @@
   </si>
   <si>
     <t>Implementation</t>
+  </si>
+  <si>
+    <t>proportional</t>
+  </si>
+  <si>
+    <t>متناسب</t>
+  </si>
+  <si>
+    <t>influx</t>
+  </si>
+  <si>
+    <t>هجوم</t>
+  </si>
+  <si>
+    <t>vital</t>
+  </si>
+  <si>
+    <t>a triangular shaped tool</t>
+  </si>
+  <si>
+    <t>wedge</t>
+  </si>
+  <si>
+    <t>Pitfall</t>
+  </si>
+  <si>
+    <t>تله</t>
+  </si>
+  <si>
+    <t>motto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سخن زبده , شعار</t>
+  </si>
+  <si>
+    <t>مایه زحمت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appeal </t>
+  </si>
+  <si>
+    <t>درخواست</t>
+  </si>
+  <si>
+    <t>extensive</t>
+  </si>
+  <si>
+    <t>گسترده</t>
+  </si>
+  <si>
+    <t>acquaint</t>
+  </si>
+  <si>
+    <t>آشنا کردن</t>
+  </si>
+  <si>
+    <t>tedious</t>
+  </si>
+  <si>
+    <t>خسته کننده</t>
+  </si>
+  <si>
+    <t>traverse</t>
+  </si>
+  <si>
+    <t>پیمودن</t>
+  </si>
+  <si>
+    <t>habitat</t>
+  </si>
+  <si>
+    <t>زیستگاه</t>
+  </si>
+  <si>
+    <t>cue</t>
+  </si>
+  <si>
+    <t>نشانه</t>
+  </si>
+  <si>
+    <t>oscillating</t>
+  </si>
+  <si>
+    <t>در حال نوسان</t>
+  </si>
+  <si>
+    <t>Preliminary</t>
+  </si>
+  <si>
+    <t>مقدماتی</t>
+  </si>
+  <si>
+    <t>glance</t>
+  </si>
+  <si>
+    <t>نگاه</t>
+  </si>
+  <si>
+    <t>opaque</t>
+  </si>
+  <si>
+    <t>مات ، کدر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complementary </t>
+  </si>
+  <si>
+    <t>قدر، اندازه ، عظمت حجم</t>
   </si>
 </sst>
 </file>
@@ -1892,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8103EE8-8652-4065-9906-2F66BB4C7AFE}">
   <dimension ref="A1:B395"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="A229" sqref="A229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3551,92 +3659,180 @@
       </c>
     </row>
     <row r="207" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="3"/>
-      <c r="B207" s="7"/>
+      <c r="A207" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="208" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="3"/>
-      <c r="B208" s="7"/>
+      <c r="A208" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="209" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="3"/>
-      <c r="B209" s="7"/>
+      <c r="A209" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="210" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="3"/>
-      <c r="B210" s="7"/>
+      <c r="A210" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="211" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="3"/>
-      <c r="B211" s="7"/>
+      <c r="A211" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="212" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="3"/>
-      <c r="B212" s="7"/>
+      <c r="A212" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="213" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="3"/>
-      <c r="B213" s="7"/>
+      <c r="A213" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="214" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="3"/>
-      <c r="B214" s="7"/>
+      <c r="A214" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="215" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="3"/>
-      <c r="B215" s="7"/>
+      <c r="A215" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="216" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="3"/>
-      <c r="B216" s="7"/>
+      <c r="A216" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="217" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="3"/>
-      <c r="B217" s="7"/>
+      <c r="A217" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="218" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="3"/>
-      <c r="B218" s="7"/>
+      <c r="A218" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="219" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="3"/>
-      <c r="B219" s="7"/>
+      <c r="A219" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="220" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="3"/>
-      <c r="B220" s="7"/>
+      <c r="A220" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="221" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="3"/>
-      <c r="B221" s="7"/>
+      <c r="A221" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="222" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="3"/>
-      <c r="B222" s="7"/>
+      <c r="A222" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="223" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="3"/>
-      <c r="B223" s="7"/>
+      <c r="A223" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="224" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="3"/>
-      <c r="B224" s="7"/>
+      <c r="A224" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="225" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="3"/>
-      <c r="B225" s="7"/>
+      <c r="A225" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="226" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="3"/>
-      <c r="B226" s="7"/>
+      <c r="A226" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="227" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="3"/>
-      <c r="B227" s="7"/>
+      <c r="A227" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="228" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="3"/>
-      <c r="B228" s="7"/>
+      <c r="A228" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="229" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>

--- a/Word skill.xlsx
+++ b/Word skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xre22\OneDrive\Desktop\Data sciense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACE2931-E900-4353-A9CC-D39AE47587C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849CDAD6-7909-47A3-92E1-576A96EAB10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15660" yWindow="4065" windowWidth="13140" windowHeight="8925" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
+    <workbookView xWindow="21165" yWindow="1590" windowWidth="13140" windowHeight="8925" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="498">
   <si>
     <t>Asymmetrical</t>
   </si>
@@ -1320,13 +1320,226 @@
   </si>
   <si>
     <t>قدر، اندازه ، عظمت حجم</t>
+  </si>
+  <si>
+    <t>wrangle</t>
+  </si>
+  <si>
+    <t>دعوا کردن</t>
+  </si>
+  <si>
+    <t>tidying</t>
+  </si>
+  <si>
+    <t>مرتب کردن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prerequisite </t>
+  </si>
+  <si>
+    <t>پيش نياز</t>
+  </si>
+  <si>
+    <t>nonsensical</t>
+  </si>
+  <si>
+    <t>چرند</t>
+  </si>
+  <si>
+    <t>equator</t>
+  </si>
+  <si>
+    <t>استوا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preliminary </t>
+  </si>
+  <si>
+    <t>Alternation</t>
+  </si>
+  <si>
+    <t>تناوب , نوبتی</t>
+  </si>
+  <si>
+    <t>مایه زحمت , سنگین</t>
+  </si>
+  <si>
+    <t>tidy</t>
+  </si>
+  <si>
+    <t>مرتب</t>
+  </si>
+  <si>
+    <t>probe</t>
+  </si>
+  <si>
+    <t>پویشگر</t>
+  </si>
+  <si>
+    <t>کسر ، بخش قسمت ، ترک خوردگی</t>
+  </si>
+  <si>
+    <t>Parse</t>
+  </si>
+  <si>
+    <t>تجزیه</t>
+  </si>
+  <si>
+    <t>Census</t>
+  </si>
+  <si>
+    <t>سرشماری</t>
+  </si>
+  <si>
+    <t>hinder</t>
+  </si>
+  <si>
+    <t>مانع شود</t>
+  </si>
+  <si>
+    <t>implication</t>
+  </si>
+  <si>
+    <t>پیامد</t>
+  </si>
+  <si>
+    <t>culprit</t>
+  </si>
+  <si>
+    <t>مقصر</t>
+  </si>
+  <si>
+    <t>chunk</t>
+  </si>
+  <si>
+    <t>تکه , مقدار قابل توجه</t>
+  </si>
+  <si>
+    <t>discrepancy</t>
+  </si>
+  <si>
+    <t>مغایرت ، اختلاف</t>
+  </si>
+  <si>
+    <t>arose</t>
+  </si>
+  <si>
+    <t>به وجود آمد</t>
+  </si>
+  <si>
+    <t>interpolate</t>
+  </si>
+  <si>
+    <t>insert into something else</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>نامعتبر</t>
+  </si>
+  <si>
+    <t>Imputation</t>
+  </si>
+  <si>
+    <t>انتساب</t>
+  </si>
+  <si>
+    <t>vast</t>
+  </si>
+  <si>
+    <t>وسیع</t>
+  </si>
+  <si>
+    <t>undergraduate</t>
+  </si>
+  <si>
+    <t>کارشناسی</t>
+  </si>
+  <si>
+    <t>declined</t>
+  </si>
+  <si>
+    <t>نپذیرفتن</t>
+  </si>
+  <si>
+    <t>compensation</t>
+  </si>
+  <si>
+    <t>demographics</t>
+  </si>
+  <si>
+    <t>statistical data relating to 
+the population and
+ particular groups within it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salary
+</t>
+  </si>
+  <si>
+    <t>salvage</t>
+  </si>
+  <si>
+    <t>نجات دادن</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>تقاضا</t>
+  </si>
+  <si>
+    <t>merely</t>
+  </si>
+  <si>
+    <t>صرفا - فقط</t>
+  </si>
+  <si>
+    <t>verbally</t>
+  </si>
+  <si>
+    <t>به صورت شفاهی</t>
+  </si>
+  <si>
+    <t>perceive</t>
+  </si>
+  <si>
+    <t>درک</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>توالی</t>
+  </si>
+  <si>
+    <t>appendix</t>
+  </si>
+  <si>
+    <t>ضمیمه</t>
+  </si>
+  <si>
+    <t>allude</t>
+  </si>
+  <si>
+    <t>اشاره کردن</t>
+  </si>
+  <si>
+    <t>Contrary</t>
+  </si>
+  <si>
+    <t>مخالف</t>
+  </si>
+  <si>
+    <t>اندازه</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1400,6 +1613,12 @@
       <color rgb="FF10162F"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1498,7 +1717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1544,6 +1763,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1691,8 +1916,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6566D6F5-A59F-481D-A638-B0BE66C88384}" name="Table2" displayName="Table2" ref="A1:B395" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2" headerRowCellStyle="Good">
-  <autoFilter ref="A1:B395" xr:uid="{6566D6F5-A59F-481D-A638-B0BE66C88384}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6566D6F5-A59F-481D-A638-B0BE66C88384}" name="Table2" displayName="Table2" ref="A1:B394" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2" headerRowCellStyle="Good">
+  <autoFilter ref="A1:B394" xr:uid="{6566D6F5-A59F-481D-A638-B0BE66C88384}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6E8C0012-15E4-4F6D-83C2-7178FDE1ADA3}" name="Words" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{99E167C1-1403-4C7A-B864-35ECE76D0A71}" name="Translates" dataDxfId="0"/>
@@ -1998,19 +2223,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8103EE8-8652-4065-9906-2F66BB4C7AFE}">
-  <dimension ref="A1:B395"/>
+  <dimension ref="A1:B394"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="A229" sqref="A229"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="B267" sqref="B267"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="57.140625" customWidth="1"/>
     <col min="2" max="2" width="65.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="73.5" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>132</v>
       </c>
@@ -2018,7 +2243,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="44.1" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2026,7 +2251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="44.1" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2034,7 +2259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="44.1" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2042,7 +2267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="44.1" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2050,7 +2275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="44.1" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2058,7 +2283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="44.1" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2066,7 +2291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="44.1" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2074,7 +2299,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="44.1" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -2082,7 +2307,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="44.1" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -2090,7 +2315,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="44.1" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -2098,7 +2323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="44.1" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -2106,7 +2331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="44.1" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2114,7 +2339,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="44.1" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -2122,7 +2347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="44.1" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -2130,7 +2355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="44.1" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -2138,7 +2363,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="44.1" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -2146,7 +2371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="44.1" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -2154,7 +2379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="44.1" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -2162,7 +2387,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="44.1" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -2170,7 +2395,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="44.1" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
@@ -2178,7 +2403,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="44.1" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -2186,7 +2411,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="44.1" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
@@ -2194,7 +2419,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="44.1" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
@@ -2202,7 +2427,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="44.1" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
@@ -2210,7 +2435,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="44.1" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -2218,7 +2443,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="44.1" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
@@ -2226,7 +2451,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="44.1" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
@@ -2234,7 +2459,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="44.1" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
@@ -2242,7 +2467,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="44.1" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -2250,7 +2475,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="44.1" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2258,7 +2483,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="44.1" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>59</v>
       </c>
@@ -2266,7 +2491,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="44.1" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>61</v>
       </c>
@@ -2274,7 +2499,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="44.1" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>63</v>
       </c>
@@ -2282,7 +2507,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="44.1" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>65</v>
       </c>
@@ -2290,7 +2515,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="44.1" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>67</v>
       </c>
@@ -2298,7 +2523,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="44.1" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>69</v>
       </c>
@@ -2306,7 +2531,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="44.1" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>71</v>
       </c>
@@ -2314,7 +2539,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="44.1" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>73</v>
       </c>
@@ -2322,7 +2547,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="44.1" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>75</v>
       </c>
@@ -2330,7 +2555,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="44.1" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>77</v>
       </c>
@@ -2338,7 +2563,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="44.1" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>79</v>
       </c>
@@ -2346,7 +2571,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="44.1" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>81</v>
       </c>
@@ -2354,7 +2579,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="44.1" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>83</v>
       </c>
@@ -2362,7 +2587,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="44.1" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>85</v>
       </c>
@@ -2370,7 +2595,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="44.1" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>87</v>
       </c>
@@ -2378,7 +2603,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="44.1" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>89</v>
       </c>
@@ -2386,7 +2611,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="44.1" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>91</v>
       </c>
@@ -2394,7 +2619,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="44.1" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>93</v>
       </c>
@@ -2402,7 +2627,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="44.1" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>94</v>
       </c>
@@ -2410,7 +2635,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="44.1" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>95</v>
       </c>
@@ -2418,7 +2643,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="44.1" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>96</v>
       </c>
@@ -2426,7 +2651,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="44.1" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>101</v>
       </c>
@@ -2434,7 +2659,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="44.1" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>103</v>
       </c>
@@ -2442,7 +2667,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="44.1" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>105</v>
       </c>
@@ -2450,7 +2675,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="44.1" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>107</v>
       </c>
@@ -2458,7 +2683,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="44.1" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>109</v>
       </c>
@@ -2466,7 +2691,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="44.1" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>110</v>
       </c>
@@ -2474,7 +2699,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="44.1" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>112</v>
       </c>
@@ -2482,7 +2707,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="44.1" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>114</v>
       </c>
@@ -2490,7 +2715,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="44.1" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>116</v>
       </c>
@@ -2498,7 +2723,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="44.1" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>119</v>
       </c>
@@ -2506,7 +2731,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="44.1" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>120</v>
       </c>
@@ -2514,7 +2739,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="44.1" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>122</v>
       </c>
@@ -2522,7 +2747,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="44.1" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>124</v>
       </c>
@@ -2530,7 +2755,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="44.1" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>126</v>
       </c>
@@ -2538,7 +2763,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="44.1" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>128</v>
       </c>
@@ -2546,7 +2771,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="44.1" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>130</v>
       </c>
@@ -2554,7 +2779,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="44.1" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>135</v>
       </c>
@@ -2562,7 +2787,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="44.1" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>137</v>
       </c>
@@ -2570,7 +2795,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="44.1" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>139</v>
       </c>
@@ -2578,7 +2803,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="44.1" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>141</v>
       </c>
@@ -2586,7 +2811,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="44.1" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>143</v>
       </c>
@@ -2594,7 +2819,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="44.1" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>145</v>
       </c>
@@ -2602,7 +2827,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="44.1" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>147</v>
       </c>
@@ -2610,7 +2835,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="44.1" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>149</v>
       </c>
@@ -2618,7 +2843,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="44.1" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>151</v>
       </c>
@@ -2626,7 +2851,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="44.1" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>153</v>
       </c>
@@ -2634,7 +2859,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="44.1" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>155</v>
       </c>
@@ -2642,7 +2867,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="44.1" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>157</v>
       </c>
@@ -2650,7 +2875,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="44.1" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>130</v>
       </c>
@@ -2658,7 +2883,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="44.1" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>159</v>
       </c>
@@ -2666,7 +2891,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="44.1" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>161</v>
       </c>
@@ -2674,7 +2899,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="44.1" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>163</v>
       </c>
@@ -2682,7 +2907,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="44.1" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>165</v>
       </c>
@@ -2690,7 +2915,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="44.1" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>167</v>
       </c>
@@ -2698,7 +2923,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="44.1" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>169</v>
       </c>
@@ -2706,7 +2931,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="44.1" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>149</v>
       </c>
@@ -2714,7 +2939,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="44.1" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>171</v>
       </c>
@@ -2722,7 +2947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="44.1" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>172</v>
       </c>
@@ -2730,7 +2955,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="44.1" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>174</v>
       </c>
@@ -2738,7 +2963,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="44.1" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>176</v>
       </c>
@@ -2746,7 +2971,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="44.1" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>178</v>
       </c>
@@ -2754,7 +2979,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="44.1" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>180</v>
       </c>
@@ -2762,7 +2987,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="44.1" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>182</v>
       </c>
@@ -2770,7 +2995,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="44.1" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>184</v>
       </c>
@@ -2778,7 +3003,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="44.1" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>186</v>
       </c>
@@ -2786,7 +3011,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="44.1" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>188</v>
       </c>
@@ -2794,7 +3019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="44.1" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>189</v>
       </c>
@@ -2802,7 +3027,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="44.1" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>191</v>
       </c>
@@ -2810,7 +3035,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="44.1" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>193</v>
       </c>
@@ -2818,7 +3043,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="44.1" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>195</v>
       </c>
@@ -2826,7 +3051,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="44.1" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>197</v>
       </c>
@@ -2834,7 +3059,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="44.1" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>199</v>
       </c>
@@ -2842,7 +3067,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="44.1" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>201</v>
       </c>
@@ -2850,7 +3075,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="44.1" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>203</v>
       </c>
@@ -2858,7 +3083,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="44.1" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>205</v>
       </c>
@@ -2866,7 +3091,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="44.1" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>207</v>
       </c>
@@ -2874,7 +3099,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="44.1" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>174</v>
       </c>
@@ -2882,7 +3107,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="44.1" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>210</v>
       </c>
@@ -2890,7 +3115,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="44.1" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>212</v>
       </c>
@@ -2898,7 +3123,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="44.1" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>214</v>
       </c>
@@ -2906,7 +3131,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="44.1" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>216</v>
       </c>
@@ -2914,7 +3139,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="44.1" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>218</v>
       </c>
@@ -2922,7 +3147,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="44.1" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>220</v>
       </c>
@@ -2930,7 +3155,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="44.1" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>222</v>
       </c>
@@ -2938,7 +3163,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="44.1" customHeight="1">
       <c r="A117" s="3" t="s">
         <v>224</v>
       </c>
@@ -2946,7 +3171,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="44.1" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>226</v>
       </c>
@@ -2954,7 +3179,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="44.1" customHeight="1">
       <c r="A119" s="3" t="s">
         <v>228</v>
       </c>
@@ -2962,7 +3187,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="44.1" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>230</v>
       </c>
@@ -2970,7 +3195,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="44.1" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>232</v>
       </c>
@@ -2978,7 +3203,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="44.1" customHeight="1">
       <c r="A122" s="3" t="s">
         <v>234</v>
       </c>
@@ -2986,7 +3211,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="44.1" customHeight="1">
       <c r="A123" s="3" t="s">
         <v>236</v>
       </c>
@@ -2994,7 +3219,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="44.1" customHeight="1">
       <c r="A124" s="3" t="s">
         <v>238</v>
       </c>
@@ -3002,7 +3227,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="44.1" customHeight="1">
       <c r="A125" s="3" t="s">
         <v>240</v>
       </c>
@@ -3010,7 +3235,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="44.1" customHeight="1">
       <c r="A126" s="3" t="s">
         <v>242</v>
       </c>
@@ -3018,7 +3243,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="44.1" customHeight="1">
       <c r="A127" s="3" t="s">
         <v>244</v>
       </c>
@@ -3026,7 +3251,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="44.1" customHeight="1">
       <c r="A128" s="3" t="s">
         <v>246</v>
       </c>
@@ -3034,7 +3259,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="44.1" customHeight="1">
       <c r="A129" s="3" t="s">
         <v>248</v>
       </c>
@@ -3042,7 +3267,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="44.1" customHeight="1">
       <c r="A130" s="3" t="s">
         <v>249</v>
       </c>
@@ -3050,7 +3275,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="44.1" customHeight="1">
       <c r="A131" s="3" t="s">
         <v>251</v>
       </c>
@@ -3058,7 +3283,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="44.1" customHeight="1">
       <c r="A132" s="3" t="s">
         <v>253</v>
       </c>
@@ -3066,7 +3291,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="44.1" customHeight="1">
       <c r="A133" s="3" t="s">
         <v>255</v>
       </c>
@@ -3074,7 +3299,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="44.1" customHeight="1">
       <c r="A134" s="3" t="s">
         <v>257</v>
       </c>
@@ -3082,7 +3307,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="44.1" customHeight="1">
       <c r="A135" s="3" t="s">
         <v>259</v>
       </c>
@@ -3090,7 +3315,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="44.1" customHeight="1">
       <c r="A136" s="3" t="s">
         <v>261</v>
       </c>
@@ -3098,7 +3323,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="44.1" customHeight="1">
       <c r="A137" s="3" t="s">
         <v>263</v>
       </c>
@@ -3106,7 +3331,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="44.1" customHeight="1">
       <c r="A138" s="3" t="s">
         <v>265</v>
       </c>
@@ -3114,7 +3339,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="44.1" customHeight="1">
       <c r="A139" s="3" t="s">
         <v>267</v>
       </c>
@@ -3122,7 +3347,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="44.1" customHeight="1">
       <c r="A140" s="3" t="s">
         <v>269</v>
       </c>
@@ -3130,7 +3355,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="44.1" customHeight="1">
       <c r="A141" s="3" t="s">
         <v>271</v>
       </c>
@@ -3138,7 +3363,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="44.1" customHeight="1">
       <c r="A142" s="3" t="s">
         <v>272</v>
       </c>
@@ -3146,7 +3371,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="44.1" customHeight="1">
       <c r="A143" s="3" t="s">
         <v>274</v>
       </c>
@@ -3154,7 +3379,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="44.1" customHeight="1">
       <c r="A144" s="3" t="s">
         <v>276</v>
       </c>
@@ -3162,7 +3387,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="44.1" customHeight="1">
       <c r="A145" s="3" t="s">
         <v>278</v>
       </c>
@@ -3170,7 +3395,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="44.1" customHeight="1">
       <c r="A146" s="3" t="s">
         <v>280</v>
       </c>
@@ -3178,7 +3403,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="44.1" customHeight="1">
       <c r="A147" s="3" t="s">
         <v>282</v>
       </c>
@@ -3186,7 +3411,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="44.1" customHeight="1">
       <c r="A148" s="3" t="s">
         <v>285</v>
       </c>
@@ -3194,7 +3419,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="44.1" customHeight="1">
       <c r="A149" s="3" t="s">
         <v>286</v>
       </c>
@@ -3202,7 +3427,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="44.1" customHeight="1">
       <c r="A150" s="3" t="s">
         <v>288</v>
       </c>
@@ -3210,7 +3435,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="44.1" customHeight="1">
       <c r="A151" s="3" t="s">
         <v>289</v>
       </c>
@@ -3218,7 +3443,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="44.1" customHeight="1">
       <c r="A152" s="3" t="s">
         <v>291</v>
       </c>
@@ -3226,7 +3451,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="44.1" customHeight="1">
       <c r="A153" s="3" t="s">
         <v>293</v>
       </c>
@@ -3234,7 +3459,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="44.1" customHeight="1">
       <c r="A154" s="3" t="s">
         <v>295</v>
       </c>
@@ -3242,7 +3467,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="44.1" customHeight="1">
       <c r="A155" s="3" t="s">
         <v>297</v>
       </c>
@@ -3250,7 +3475,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="44.1" customHeight="1">
       <c r="A156" s="3" t="s">
         <v>271</v>
       </c>
@@ -3258,7 +3483,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="44.1" customHeight="1">
       <c r="A157" s="3" t="s">
         <v>299</v>
       </c>
@@ -3266,7 +3491,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="44.1" customHeight="1">
       <c r="A158" s="3" t="s">
         <v>301</v>
       </c>
@@ -3274,7 +3499,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" ht="68.25" customHeight="1">
       <c r="A159" s="3" t="s">
         <v>303</v>
       </c>
@@ -3282,7 +3507,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" ht="44.1" customHeight="1">
       <c r="A160" s="3" t="s">
         <v>305</v>
       </c>
@@ -3290,7 +3515,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="44.1" customHeight="1">
       <c r="A161" s="3" t="s">
         <v>307</v>
       </c>
@@ -3298,7 +3523,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="44.1" customHeight="1">
       <c r="A162" s="3" t="s">
         <v>308</v>
       </c>
@@ -3306,7 +3531,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="44.1" customHeight="1">
       <c r="A163" s="3" t="s">
         <v>310</v>
       </c>
@@ -3314,7 +3539,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="44.1" customHeight="1">
       <c r="A164" s="3" t="s">
         <v>312</v>
       </c>
@@ -3322,7 +3547,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="44.1" customHeight="1">
       <c r="A165" s="3" t="s">
         <v>314</v>
       </c>
@@ -3330,7 +3555,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="44.1" customHeight="1">
       <c r="A166" s="3" t="s">
         <v>316</v>
       </c>
@@ -3338,7 +3563,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="44.1" customHeight="1">
       <c r="A167" s="3" t="s">
         <v>318</v>
       </c>
@@ -3346,7 +3571,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="44.1" customHeight="1">
       <c r="A168" s="3" t="s">
         <v>320</v>
       </c>
@@ -3354,7 +3579,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="44.1" customHeight="1">
       <c r="A169" s="3" t="s">
         <v>322</v>
       </c>
@@ -3362,7 +3587,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="44.1" customHeight="1">
       <c r="A170" s="3" t="s">
         <v>324</v>
       </c>
@@ -3370,7 +3595,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="44.1" customHeight="1">
       <c r="A171" s="3" t="s">
         <v>326</v>
       </c>
@@ -3378,7 +3603,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="44.1" customHeight="1">
       <c r="A172" s="3" t="s">
         <v>329</v>
       </c>
@@ -3386,7 +3611,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="44.1" customHeight="1">
       <c r="A173" s="3" t="s">
         <v>331</v>
       </c>
@@ -3394,7 +3619,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="44.1" customHeight="1">
       <c r="A174" s="3" t="s">
         <v>333</v>
       </c>
@@ -3402,7 +3627,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="44.1" customHeight="1">
       <c r="A175" s="3" t="s">
         <v>291</v>
       </c>
@@ -3410,7 +3635,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="44.1" customHeight="1">
       <c r="A176" s="3" t="s">
         <v>335</v>
       </c>
@@ -3418,7 +3643,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="44.1" customHeight="1">
       <c r="A177" s="3" t="s">
         <v>337</v>
       </c>
@@ -3426,7 +3651,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="44.1" customHeight="1">
       <c r="A178" s="3" t="s">
         <v>339</v>
       </c>
@@ -3434,7 +3659,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="44.1" customHeight="1">
       <c r="A179" s="3" t="s">
         <v>341</v>
       </c>
@@ -3442,7 +3667,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="44.1" customHeight="1">
       <c r="A180" s="3" t="s">
         <v>343</v>
       </c>
@@ -3450,7 +3675,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="44.1" customHeight="1">
       <c r="A181" s="3" t="s">
         <v>345</v>
       </c>
@@ -3458,7 +3683,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="44.1" customHeight="1">
       <c r="A182" s="3" t="s">
         <v>347</v>
       </c>
@@ -3466,7 +3691,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="44.1" customHeight="1">
       <c r="A183" s="3" t="s">
         <v>349</v>
       </c>
@@ -3474,7 +3699,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="44.1" customHeight="1">
       <c r="A184" s="3" t="s">
         <v>351</v>
       </c>
@@ -3482,7 +3707,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="44.1" customHeight="1">
       <c r="A185" s="3" t="s">
         <v>353</v>
       </c>
@@ -3490,7 +3715,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="44.1" customHeight="1">
       <c r="A186" s="3" t="s">
         <v>355</v>
       </c>
@@ -3498,7 +3723,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="44.1" customHeight="1">
       <c r="A187" s="3" t="s">
         <v>357</v>
       </c>
@@ -3506,7 +3731,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="44.1" customHeight="1">
       <c r="A188" s="3" t="s">
         <v>359</v>
       </c>
@@ -3514,7 +3739,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="44.1" customHeight="1">
       <c r="A189" s="3" t="s">
         <v>361</v>
       </c>
@@ -3522,7 +3747,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="44.1" customHeight="1">
       <c r="A190" s="3" t="s">
         <v>363</v>
       </c>
@@ -3530,7 +3755,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="44.1" customHeight="1">
       <c r="A191" s="3" t="s">
         <v>365</v>
       </c>
@@ -3538,7 +3763,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="44.1" customHeight="1">
       <c r="A192" s="3" t="s">
         <v>367</v>
       </c>
@@ -3546,7 +3771,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="44.1" customHeight="1">
       <c r="A193" s="3" t="s">
         <v>327</v>
       </c>
@@ -3554,7 +3779,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="44.1" customHeight="1">
       <c r="A194" s="3" t="s">
         <v>369</v>
       </c>
@@ -3562,7 +3787,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="44.1" customHeight="1">
       <c r="A195" s="3" t="s">
         <v>371</v>
       </c>
@@ -3570,7 +3795,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="44.1" customHeight="1">
       <c r="A196" s="3" t="s">
         <v>373</v>
       </c>
@@ -3578,7 +3803,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="44.1" customHeight="1">
       <c r="A197" s="3" t="s">
         <v>375</v>
       </c>
@@ -3586,7 +3811,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="44.1" customHeight="1">
       <c r="A198" s="3" t="s">
         <v>377</v>
       </c>
@@ -3594,7 +3819,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="44.1" customHeight="1">
       <c r="A199" s="3" t="s">
         <v>379</v>
       </c>
@@ -3602,7 +3827,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="44.1" customHeight="1">
       <c r="A200" s="3" t="s">
         <v>381</v>
       </c>
@@ -3610,7 +3835,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="44.1" customHeight="1">
       <c r="A201" s="3" t="s">
         <v>383</v>
       </c>
@@ -3618,7 +3843,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="44.1" customHeight="1">
       <c r="A202" s="3" t="s">
         <v>377</v>
       </c>
@@ -3626,7 +3851,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="44.1" customHeight="1">
       <c r="A203" s="3" t="s">
         <v>385</v>
       </c>
@@ -3634,7 +3859,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" ht="89.25" customHeight="1">
       <c r="A204" s="3" t="s">
         <v>387</v>
       </c>
@@ -3642,7 +3867,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="44.1" customHeight="1">
       <c r="A205" s="3" t="s">
         <v>389</v>
       </c>
@@ -3650,7 +3875,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" ht="44.1" customHeight="1">
       <c r="A206" s="3" t="s">
         <v>391</v>
       </c>
@@ -3658,7 +3883,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="44.1" customHeight="1">
       <c r="A207" s="3" t="s">
         <v>392</v>
       </c>
@@ -3666,7 +3891,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" ht="44.1" customHeight="1">
       <c r="A208" s="3" t="s">
         <v>394</v>
       </c>
@@ -3674,7 +3899,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="44.1" customHeight="1">
       <c r="A209" s="3" t="s">
         <v>396</v>
       </c>
@@ -3682,7 +3907,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" ht="44.1" customHeight="1">
       <c r="A210" s="3" t="s">
         <v>398</v>
       </c>
@@ -3690,7 +3915,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" ht="44.1" customHeight="1">
       <c r="A211" s="3" t="s">
         <v>399</v>
       </c>
@@ -3698,7 +3923,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="44.1" customHeight="1">
       <c r="A212" s="3" t="s">
         <v>274</v>
       </c>
@@ -3706,7 +3931,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="44.1" customHeight="1">
       <c r="A213" s="3" t="s">
         <v>401</v>
       </c>
@@ -3714,7 +3939,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" ht="44.1" customHeight="1">
       <c r="A214" s="3" t="s">
         <v>333</v>
       </c>
@@ -3722,7 +3947,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" ht="44.1" customHeight="1">
       <c r="A215" s="3" t="s">
         <v>404</v>
       </c>
@@ -3730,7 +3955,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" ht="44.1" customHeight="1">
       <c r="A216" s="3" t="s">
         <v>406</v>
       </c>
@@ -3738,7 +3963,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" ht="44.1" customHeight="1">
       <c r="A217" s="3" t="s">
         <v>408</v>
       </c>
@@ -3746,7 +3971,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="44.1" customHeight="1">
       <c r="A218" s="3" t="s">
         <v>410</v>
       </c>
@@ -3754,7 +3979,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" ht="44.1" customHeight="1">
       <c r="A219" s="3" t="s">
         <v>412</v>
       </c>
@@ -3762,7 +3987,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" ht="44.1" customHeight="1">
       <c r="A220" s="3" t="s">
         <v>414</v>
       </c>
@@ -3770,7 +3995,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" ht="44.1" customHeight="1">
       <c r="A221" s="3" t="s">
         <v>416</v>
       </c>
@@ -3778,7 +4003,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="44.1" customHeight="1">
       <c r="A222" s="3" t="s">
         <v>418</v>
       </c>
@@ -3786,7 +4011,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" ht="44.1" customHeight="1">
       <c r="A223" s="3" t="s">
         <v>420</v>
       </c>
@@ -3794,7 +4019,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" ht="44.1" customHeight="1">
       <c r="A224" s="3" t="s">
         <v>288</v>
       </c>
@@ -3802,7 +4027,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" ht="44.1" customHeight="1">
       <c r="A225" s="3" t="s">
         <v>422</v>
       </c>
@@ -3810,7 +4035,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="44.1" customHeight="1">
       <c r="A226" s="3" t="s">
         <v>424</v>
       </c>
@@ -3818,7 +4043,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" ht="44.1" customHeight="1">
       <c r="A227" s="3" t="s">
         <v>426</v>
       </c>
@@ -3826,7 +4051,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="44.1" customHeight="1">
       <c r="A228" s="3" t="s">
         <v>385</v>
       </c>
@@ -3834,673 +4059,825 @@
         <v>427</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="3"/>
-      <c r="B229" s="7"/>
-    </row>
-    <row r="230" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="3"/>
-      <c r="B230" s="7"/>
-    </row>
-    <row r="231" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="3"/>
-      <c r="B231" s="7"/>
-    </row>
-    <row r="232" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="3"/>
-      <c r="B232" s="7"/>
-    </row>
-    <row r="233" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="3"/>
-      <c r="B233" s="7"/>
-    </row>
-    <row r="234" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="3"/>
-      <c r="B234" s="7"/>
-    </row>
-    <row r="235" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="3"/>
-      <c r="B235" s="7"/>
-    </row>
-    <row r="236" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="3"/>
-      <c r="B236" s="7"/>
-    </row>
-    <row r="237" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="3"/>
-      <c r="B237" s="7"/>
-    </row>
-    <row r="238" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="3"/>
-      <c r="B238" s="7"/>
-    </row>
-    <row r="239" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="3"/>
-      <c r="B239" s="7"/>
-    </row>
-    <row r="240" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="3"/>
-      <c r="B240" s="7"/>
-    </row>
-    <row r="241" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="3"/>
-      <c r="B241" s="7"/>
-    </row>
-    <row r="242" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="3"/>
-      <c r="B242" s="7"/>
-    </row>
-    <row r="243" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="3"/>
-      <c r="B243" s="7"/>
-    </row>
-    <row r="244" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="3"/>
-      <c r="B244" s="7"/>
-    </row>
-    <row r="245" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="3"/>
-      <c r="B245" s="7"/>
-    </row>
-    <row r="246" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="3"/>
-      <c r="B246" s="7"/>
-    </row>
-    <row r="247" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="3"/>
-      <c r="B247" s="7"/>
-    </row>
-    <row r="248" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="3"/>
-      <c r="B248" s="7"/>
-    </row>
-    <row r="249" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="3"/>
-      <c r="B249" s="7"/>
-    </row>
-    <row r="250" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="3"/>
-      <c r="B250" s="7"/>
-    </row>
-    <row r="251" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="3"/>
-      <c r="B251" s="7"/>
-    </row>
-    <row r="252" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="3"/>
-      <c r="B252" s="7"/>
-    </row>
-    <row r="253" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="3"/>
-      <c r="B253" s="7"/>
-    </row>
-    <row r="254" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="3"/>
-      <c r="B254" s="7"/>
-    </row>
-    <row r="255" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="3"/>
-      <c r="B255" s="7"/>
-    </row>
-    <row r="256" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="3"/>
-      <c r="B256" s="7"/>
-    </row>
-    <row r="257" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="3"/>
-      <c r="B257" s="7"/>
-    </row>
-    <row r="258" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="3"/>
-      <c r="B258" s="7"/>
-    </row>
-    <row r="259" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="3"/>
-      <c r="B259" s="7"/>
-    </row>
-    <row r="260" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="3"/>
-      <c r="B260" s="7"/>
-    </row>
-    <row r="261" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="3"/>
-      <c r="B261" s="7"/>
-    </row>
-    <row r="262" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="3"/>
-      <c r="B262" s="7"/>
-    </row>
-    <row r="263" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="3"/>
-      <c r="B263" s="7"/>
-    </row>
-    <row r="264" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="3"/>
-      <c r="B264" s="7"/>
-    </row>
-    <row r="265" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="3"/>
-      <c r="B265" s="7"/>
-    </row>
-    <row r="266" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="3"/>
-      <c r="B266" s="7"/>
-    </row>
-    <row r="267" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="3"/>
-      <c r="B267" s="7"/>
-    </row>
-    <row r="268" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A229" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A230" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A231" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A232" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A233" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A234" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A235" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A236" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A237" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A238" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A239" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A240" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A241" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A242" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A243" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A244" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A245" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A246" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A247" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A248" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A249" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A250" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A251" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A252" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A253" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A254" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A255" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B255" s="18" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="87" customHeight="1">
+      <c r="A256" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B256" s="17" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A257" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A258" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A259" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A260" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A261" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A262" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A263" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A264" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A265" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A266" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A267" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="44.1" customHeight="1">
       <c r="A268" s="3"/>
       <c r="B268" s="7"/>
     </row>
-    <row r="269" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" ht="44.1" customHeight="1">
       <c r="A269" s="3"/>
       <c r="B269" s="7"/>
     </row>
-    <row r="270" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" ht="44.1" customHeight="1">
       <c r="A270" s="3"/>
       <c r="B270" s="7"/>
     </row>
-    <row r="271" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" ht="44.1" customHeight="1">
       <c r="A271" s="3"/>
       <c r="B271" s="7"/>
     </row>
-    <row r="272" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" ht="44.1" customHeight="1">
       <c r="A272" s="3"/>
       <c r="B272" s="7"/>
     </row>
-    <row r="273" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" ht="44.1" customHeight="1">
       <c r="A273" s="3"/>
       <c r="B273" s="7"/>
     </row>
-    <row r="274" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" ht="44.1" customHeight="1">
       <c r="A274" s="3"/>
       <c r="B274" s="7"/>
     </row>
-    <row r="275" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" ht="44.1" customHeight="1">
       <c r="A275" s="3"/>
       <c r="B275" s="7"/>
     </row>
-    <row r="276" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" ht="44.1" customHeight="1">
       <c r="A276" s="3"/>
       <c r="B276" s="7"/>
     </row>
-    <row r="277" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" ht="44.1" customHeight="1">
       <c r="A277" s="3"/>
       <c r="B277" s="7"/>
     </row>
-    <row r="278" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" ht="44.1" customHeight="1">
       <c r="A278" s="3"/>
       <c r="B278" s="7"/>
     </row>
-    <row r="279" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" ht="44.1" customHeight="1">
       <c r="A279" s="3"/>
       <c r="B279" s="7"/>
     </row>
-    <row r="280" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" ht="44.1" customHeight="1">
       <c r="A280" s="3"/>
       <c r="B280" s="7"/>
     </row>
-    <row r="281" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" ht="44.1" customHeight="1">
       <c r="A281" s="3"/>
       <c r="B281" s="7"/>
     </row>
-    <row r="282" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" ht="44.1" customHeight="1">
       <c r="A282" s="3"/>
       <c r="B282" s="7"/>
     </row>
-    <row r="283" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" ht="44.1" customHeight="1">
       <c r="A283" s="3"/>
       <c r="B283" s="7"/>
     </row>
-    <row r="284" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" ht="44.1" customHeight="1">
       <c r="A284" s="3"/>
       <c r="B284" s="7"/>
     </row>
-    <row r="285" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" ht="44.1" customHeight="1">
       <c r="A285" s="3"/>
       <c r="B285" s="7"/>
     </row>
-    <row r="286" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" ht="44.1" customHeight="1">
       <c r="A286" s="3"/>
       <c r="B286" s="7"/>
     </row>
-    <row r="287" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" ht="44.1" customHeight="1">
       <c r="A287" s="3"/>
       <c r="B287" s="7"/>
     </row>
-    <row r="288" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" ht="44.1" customHeight="1">
       <c r="A288" s="3"/>
       <c r="B288" s="7"/>
     </row>
-    <row r="289" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" ht="44.1" customHeight="1">
       <c r="A289" s="3"/>
       <c r="B289" s="7"/>
     </row>
-    <row r="290" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" ht="44.1" customHeight="1">
       <c r="A290" s="3"/>
       <c r="B290" s="7"/>
     </row>
-    <row r="291" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" ht="44.1" customHeight="1">
       <c r="A291" s="3"/>
       <c r="B291" s="7"/>
     </row>
-    <row r="292" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" ht="44.1" customHeight="1">
       <c r="A292" s="3"/>
       <c r="B292" s="7"/>
     </row>
-    <row r="293" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" ht="44.1" customHeight="1">
       <c r="A293" s="3"/>
       <c r="B293" s="7"/>
     </row>
-    <row r="294" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" ht="44.1" customHeight="1">
       <c r="A294" s="3"/>
       <c r="B294" s="7"/>
     </row>
-    <row r="295" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" ht="44.1" customHeight="1">
       <c r="A295" s="3"/>
       <c r="B295" s="7"/>
     </row>
-    <row r="296" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" ht="44.1" customHeight="1">
       <c r="A296" s="3"/>
       <c r="B296" s="7"/>
     </row>
-    <row r="297" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" ht="44.1" customHeight="1">
       <c r="A297" s="3"/>
       <c r="B297" s="7"/>
     </row>
-    <row r="298" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" ht="44.1" customHeight="1">
       <c r="A298" s="3"/>
       <c r="B298" s="7"/>
     </row>
-    <row r="299" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" ht="44.1" customHeight="1">
       <c r="A299" s="3"/>
       <c r="B299" s="7"/>
     </row>
-    <row r="300" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" ht="44.1" customHeight="1">
       <c r="A300" s="3"/>
       <c r="B300" s="7"/>
     </row>
-    <row r="301" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" ht="44.1" customHeight="1">
       <c r="A301" s="3"/>
       <c r="B301" s="7"/>
     </row>
-    <row r="302" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" ht="44.1" customHeight="1">
       <c r="A302" s="3"/>
       <c r="B302" s="7"/>
     </row>
-    <row r="303" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" ht="44.1" customHeight="1">
       <c r="A303" s="3"/>
       <c r="B303" s="7"/>
     </row>
-    <row r="304" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" ht="44.1" customHeight="1">
       <c r="A304" s="3"/>
       <c r="B304" s="7"/>
     </row>
-    <row r="305" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" ht="44.1" customHeight="1">
       <c r="A305" s="3"/>
       <c r="B305" s="7"/>
     </row>
-    <row r="306" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" ht="44.1" customHeight="1">
       <c r="A306" s="3"/>
       <c r="B306" s="7"/>
     </row>
-    <row r="307" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" ht="44.1" customHeight="1">
       <c r="A307" s="3"/>
       <c r="B307" s="7"/>
     </row>
-    <row r="308" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" ht="44.1" customHeight="1">
       <c r="A308" s="3"/>
       <c r="B308" s="7"/>
     </row>
-    <row r="309" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" ht="44.1" customHeight="1">
       <c r="A309" s="3"/>
       <c r="B309" s="7"/>
     </row>
-    <row r="310" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" ht="44.1" customHeight="1">
       <c r="A310" s="3"/>
       <c r="B310" s="7"/>
     </row>
-    <row r="311" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" ht="44.1" customHeight="1">
       <c r="A311" s="3"/>
       <c r="B311" s="7"/>
     </row>
-    <row r="312" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" ht="44.1" customHeight="1">
       <c r="A312" s="3"/>
       <c r="B312" s="7"/>
     </row>
-    <row r="313" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" ht="44.1" customHeight="1">
       <c r="A313" s="3"/>
       <c r="B313" s="7"/>
     </row>
-    <row r="314" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" ht="44.1" customHeight="1">
       <c r="A314" s="3"/>
       <c r="B314" s="7"/>
     </row>
-    <row r="315" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" ht="44.1" customHeight="1">
       <c r="A315" s="3"/>
       <c r="B315" s="7"/>
     </row>
-    <row r="316" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" ht="44.1" customHeight="1">
       <c r="A316" s="3"/>
       <c r="B316" s="7"/>
     </row>
-    <row r="317" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" ht="44.1" customHeight="1">
       <c r="A317" s="3"/>
       <c r="B317" s="7"/>
     </row>
-    <row r="318" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" ht="44.1" customHeight="1">
       <c r="A318" s="3"/>
       <c r="B318" s="7"/>
     </row>
-    <row r="319" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" ht="44.1" customHeight="1">
       <c r="A319" s="3"/>
       <c r="B319" s="7"/>
     </row>
-    <row r="320" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" ht="44.1" customHeight="1">
       <c r="A320" s="3"/>
       <c r="B320" s="7"/>
     </row>
-    <row r="321" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" ht="44.1" customHeight="1">
       <c r="A321" s="3"/>
       <c r="B321" s="7"/>
     </row>
-    <row r="322" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" ht="44.1" customHeight="1">
       <c r="A322" s="3"/>
       <c r="B322" s="7"/>
     </row>
-    <row r="323" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" ht="44.1" customHeight="1">
       <c r="A323" s="3"/>
       <c r="B323" s="7"/>
     </row>
-    <row r="324" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" ht="44.1" customHeight="1">
       <c r="A324" s="3"/>
       <c r="B324" s="7"/>
     </row>
-    <row r="325" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" ht="44.1" customHeight="1">
       <c r="A325" s="3"/>
       <c r="B325" s="7"/>
     </row>
-    <row r="326" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" ht="44.1" customHeight="1">
       <c r="A326" s="3"/>
       <c r="B326" s="7"/>
     </row>
-    <row r="327" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" ht="44.1" customHeight="1">
       <c r="A327" s="3"/>
       <c r="B327" s="7"/>
     </row>
-    <row r="328" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" ht="44.1" customHeight="1">
       <c r="A328" s="3"/>
       <c r="B328" s="7"/>
     </row>
-    <row r="329" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" ht="44.1" customHeight="1">
       <c r="A329" s="3"/>
       <c r="B329" s="7"/>
     </row>
-    <row r="330" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" ht="44.1" customHeight="1">
       <c r="A330" s="3"/>
       <c r="B330" s="7"/>
     </row>
-    <row r="331" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" ht="44.1" customHeight="1">
       <c r="A331" s="3"/>
       <c r="B331" s="7"/>
     </row>
-    <row r="332" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" ht="44.1" customHeight="1">
       <c r="A332" s="3"/>
       <c r="B332" s="7"/>
     </row>
-    <row r="333" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" ht="44.1" customHeight="1">
       <c r="A333" s="3"/>
       <c r="B333" s="7"/>
     </row>
-    <row r="334" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" ht="44.1" customHeight="1">
       <c r="A334" s="3"/>
       <c r="B334" s="7"/>
     </row>
-    <row r="335" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" ht="44.1" customHeight="1">
       <c r="A335" s="3"/>
       <c r="B335" s="7"/>
     </row>
-    <row r="336" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" ht="44.1" customHeight="1">
       <c r="A336" s="3"/>
       <c r="B336" s="7"/>
     </row>
-    <row r="337" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" ht="44.1" customHeight="1">
       <c r="A337" s="3"/>
       <c r="B337" s="7"/>
     </row>
-    <row r="338" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" ht="44.1" customHeight="1">
       <c r="A338" s="3"/>
       <c r="B338" s="7"/>
     </row>
-    <row r="339" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" ht="44.1" customHeight="1">
       <c r="A339" s="3"/>
       <c r="B339" s="7"/>
     </row>
-    <row r="340" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" ht="44.1" customHeight="1">
       <c r="A340" s="3"/>
       <c r="B340" s="7"/>
     </row>
-    <row r="341" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" ht="44.1" customHeight="1">
       <c r="A341" s="3"/>
       <c r="B341" s="7"/>
     </row>
-    <row r="342" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" ht="44.1" customHeight="1">
       <c r="A342" s="3"/>
       <c r="B342" s="7"/>
     </row>
-    <row r="343" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" ht="44.1" customHeight="1">
       <c r="A343" s="3"/>
       <c r="B343" s="7"/>
     </row>
-    <row r="344" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" ht="44.1" customHeight="1">
       <c r="A344" s="3"/>
       <c r="B344" s="7"/>
     </row>
-    <row r="345" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" ht="44.1" customHeight="1">
       <c r="A345" s="3"/>
       <c r="B345" s="7"/>
     </row>
-    <row r="346" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" ht="44.1" customHeight="1">
       <c r="A346" s="3"/>
       <c r="B346" s="7"/>
     </row>
-    <row r="347" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" ht="44.1" customHeight="1">
       <c r="A347" s="3"/>
       <c r="B347" s="7"/>
     </row>
-    <row r="348" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" ht="44.1" customHeight="1">
       <c r="A348" s="3"/>
       <c r="B348" s="7"/>
     </row>
-    <row r="349" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" ht="44.1" customHeight="1">
       <c r="A349" s="3"/>
       <c r="B349" s="7"/>
     </row>
-    <row r="350" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" ht="44.1" customHeight="1">
       <c r="A350" s="3"/>
       <c r="B350" s="7"/>
     </row>
-    <row r="351" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" ht="44.1" customHeight="1">
       <c r="A351" s="3"/>
       <c r="B351" s="7"/>
     </row>
-    <row r="352" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" ht="44.1" customHeight="1">
       <c r="A352" s="3"/>
       <c r="B352" s="7"/>
     </row>
-    <row r="353" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" ht="44.1" customHeight="1">
       <c r="A353" s="3"/>
       <c r="B353" s="7"/>
     </row>
-    <row r="354" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" ht="44.1" customHeight="1">
       <c r="A354" s="3"/>
       <c r="B354" s="7"/>
     </row>
-    <row r="355" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" ht="44.1" customHeight="1">
       <c r="A355" s="3"/>
       <c r="B355" s="7"/>
     </row>
-    <row r="356" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" ht="44.1" customHeight="1">
       <c r="A356" s="3"/>
       <c r="B356" s="7"/>
     </row>
-    <row r="357" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" ht="44.1" customHeight="1">
       <c r="A357" s="3"/>
       <c r="B357" s="7"/>
     </row>
-    <row r="358" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" ht="44.1" customHeight="1">
       <c r="A358" s="3"/>
       <c r="B358" s="7"/>
     </row>
-    <row r="359" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" ht="44.1" customHeight="1">
       <c r="A359" s="3"/>
       <c r="B359" s="7"/>
     </row>
-    <row r="360" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" ht="44.1" customHeight="1">
       <c r="A360" s="3"/>
       <c r="B360" s="7"/>
     </row>
-    <row r="361" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" ht="44.1" customHeight="1">
       <c r="A361" s="3"/>
       <c r="B361" s="7"/>
     </row>
-    <row r="362" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" ht="44.1" customHeight="1">
       <c r="A362" s="3"/>
       <c r="B362" s="7"/>
     </row>
-    <row r="363" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" ht="44.1" customHeight="1">
       <c r="A363" s="3"/>
       <c r="B363" s="7"/>
     </row>
-    <row r="364" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" ht="44.1" customHeight="1">
       <c r="A364" s="3"/>
       <c r="B364" s="7"/>
     </row>
-    <row r="365" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" ht="44.1" customHeight="1">
       <c r="A365" s="3"/>
       <c r="B365" s="7"/>
     </row>
-    <row r="366" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" ht="44.1" customHeight="1">
       <c r="A366" s="3"/>
       <c r="B366" s="7"/>
     </row>
-    <row r="367" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" ht="44.1" customHeight="1">
       <c r="A367" s="3"/>
       <c r="B367" s="7"/>
     </row>
-    <row r="368" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" ht="44.1" customHeight="1">
       <c r="A368" s="3"/>
       <c r="B368" s="7"/>
     </row>
-    <row r="369" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" ht="44.1" customHeight="1">
       <c r="A369" s="3"/>
       <c r="B369" s="7"/>
     </row>
-    <row r="370" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" ht="44.1" customHeight="1">
       <c r="A370" s="3"/>
       <c r="B370" s="7"/>
     </row>
-    <row r="371" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" ht="44.1" customHeight="1">
       <c r="A371" s="3"/>
       <c r="B371" s="7"/>
     </row>
-    <row r="372" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" ht="44.1" customHeight="1">
       <c r="A372" s="3"/>
       <c r="B372" s="7"/>
     </row>
-    <row r="373" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" ht="44.1" customHeight="1">
       <c r="A373" s="3"/>
       <c r="B373" s="7"/>
     </row>
-    <row r="374" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" ht="44.1" customHeight="1">
       <c r="A374" s="3"/>
       <c r="B374" s="7"/>
     </row>
-    <row r="375" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" ht="44.1" customHeight="1">
       <c r="A375" s="3"/>
       <c r="B375" s="7"/>
     </row>
-    <row r="376" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" ht="44.1" customHeight="1">
       <c r="A376" s="3"/>
       <c r="B376" s="7"/>
     </row>
-    <row r="377" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" ht="44.1" customHeight="1">
       <c r="A377" s="3"/>
       <c r="B377" s="7"/>
     </row>
-    <row r="378" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" ht="44.1" customHeight="1">
       <c r="A378" s="3"/>
       <c r="B378" s="7"/>
     </row>
-    <row r="379" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" ht="44.1" customHeight="1">
       <c r="A379" s="3"/>
       <c r="B379" s="7"/>
     </row>
-    <row r="380" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" ht="44.1" customHeight="1">
       <c r="A380" s="3"/>
       <c r="B380" s="7"/>
     </row>
-    <row r="381" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" ht="44.1" customHeight="1">
       <c r="A381" s="3"/>
       <c r="B381" s="7"/>
     </row>
-    <row r="382" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" ht="44.1" customHeight="1">
       <c r="A382" s="3"/>
       <c r="B382" s="7"/>
     </row>
-    <row r="383" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" ht="44.1" customHeight="1">
       <c r="A383" s="3"/>
       <c r="B383" s="7"/>
     </row>
-    <row r="384" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" ht="44.1" customHeight="1">
       <c r="A384" s="3"/>
       <c r="B384" s="7"/>
     </row>
-    <row r="385" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" ht="44.1" customHeight="1">
       <c r="A385" s="3"/>
       <c r="B385" s="7"/>
     </row>
-    <row r="386" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" ht="44.1" customHeight="1">
       <c r="A386" s="3"/>
       <c r="B386" s="7"/>
     </row>
-    <row r="387" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" ht="44.1" customHeight="1">
       <c r="A387" s="3"/>
       <c r="B387" s="7"/>
     </row>
-    <row r="388" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" ht="44.1" customHeight="1">
       <c r="A388" s="3"/>
       <c r="B388" s="7"/>
     </row>
-    <row r="389" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" ht="44.1" customHeight="1">
       <c r="A389" s="3"/>
       <c r="B389" s="7"/>
     </row>
-    <row r="390" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" ht="44.1" customHeight="1">
       <c r="A390" s="3"/>
       <c r="B390" s="7"/>
     </row>
-    <row r="391" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" ht="44.1" customHeight="1">
       <c r="A391" s="3"/>
       <c r="B391" s="7"/>
     </row>
-    <row r="392" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" ht="44.1" customHeight="1">
       <c r="A392" s="3"/>
       <c r="B392" s="7"/>
     </row>
-    <row r="393" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" ht="44.1" customHeight="1">
       <c r="A393" s="3"/>
       <c r="B393" s="7"/>
     </row>
-    <row r="394" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="3"/>
-      <c r="B394" s="7"/>
-    </row>
-    <row r="395" spans="1:2" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A395" s="10"/>
-      <c r="B395" s="11"/>
+    <row r="394" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A394" s="10"/>
+      <c r="B394" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Word skill.xlsx
+++ b/Word skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xre22\OneDrive\Desktop\Data sciense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849CDAD6-7909-47A3-92E1-576A96EAB10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D496229-AA29-4FA2-853A-915CFA76E706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21165" yWindow="1590" windowWidth="13140" windowHeight="8925" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="502">
   <si>
     <t>Asymmetrical</t>
   </si>
@@ -1533,6 +1533,18 @@
   </si>
   <si>
     <t>اندازه</t>
+  </si>
+  <si>
+    <t>agenda</t>
+  </si>
+  <si>
+    <t>دستور جلسه , موضوع مورد بحث روز</t>
+  </si>
+  <si>
+    <t>ancillary</t>
+  </si>
+  <si>
+    <t>فرعی</t>
   </si>
 </sst>
 </file>
@@ -2226,7 +2238,7 @@
   <dimension ref="A1:B394"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="B267" sqref="B267"/>
+      <selection activeCell="B269" sqref="B269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4372,12 +4384,20 @@
       </c>
     </row>
     <row r="268" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A268" s="3"/>
-      <c r="B268" s="7"/>
+      <c r="A268" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="269" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A269" s="3"/>
-      <c r="B269" s="7"/>
+      <c r="A269" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="270" spans="1:2" ht="44.1" customHeight="1">
       <c r="A270" s="3"/>

--- a/Word skill.xlsx
+++ b/Word skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xre22\OneDrive\Desktop\Data sciense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D496229-AA29-4FA2-853A-915CFA76E706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26AF453-90FE-48EA-8C0F-DAFFC8AF6763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21165" yWindow="1590" windowWidth="13140" windowHeight="8925" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
+    <workbookView xWindow="1860" yWindow="4770" windowWidth="13140" windowHeight="8925" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="530">
   <si>
     <t>Asymmetrical</t>
   </si>
@@ -1545,6 +1545,90 @@
   </si>
   <si>
     <t>فرعی</t>
+  </si>
+  <si>
+    <t>memorandum</t>
+  </si>
+  <si>
+    <t>نامه غیر رسمی</t>
+  </si>
+  <si>
+    <t>دارای ماهیت واقعی</t>
+  </si>
+  <si>
+    <t>substantive</t>
+  </si>
+  <si>
+    <t>sterile</t>
+  </si>
+  <si>
+    <t>بی حاصل</t>
+  </si>
+  <si>
+    <t>augment</t>
+  </si>
+  <si>
+    <t>افزودن ، تقویت کردن</t>
+  </si>
+  <si>
+    <t>gleaned</t>
+  </si>
+  <si>
+    <t>برداشت کرد</t>
+  </si>
+  <si>
+    <t>Omit</t>
+  </si>
+  <si>
+    <t>حذف کنید</t>
+  </si>
+  <si>
+    <t>obligate</t>
+  </si>
+  <si>
+    <t>متعهد و ملتزم کردن</t>
+  </si>
+  <si>
+    <t>erroneous</t>
+  </si>
+  <si>
+    <t>اشتباه</t>
+  </si>
+  <si>
+    <t>conventional</t>
+  </si>
+  <si>
+    <t>مرسوم</t>
+  </si>
+  <si>
+    <t>infrastructure</t>
+  </si>
+  <si>
+    <t>زیر ساخت</t>
+  </si>
+  <si>
+    <t>tangible</t>
+  </si>
+  <si>
+    <t>قابل لمس , محسوس</t>
+  </si>
+  <si>
+    <t>entail</t>
+  </si>
+  <si>
+    <t>مستلزم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emphasis </t>
+  </si>
+  <si>
+    <t>تاکید</t>
+  </si>
+  <si>
+    <t>whisker</t>
+  </si>
+  <si>
+    <t>سبیل</t>
   </si>
 </sst>
 </file>
@@ -2237,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8103EE8-8652-4065-9906-2F66BB4C7AFE}">
   <dimension ref="A1:B394"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="B269" sqref="B269"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4400,60 +4484,116 @@
       </c>
     </row>
     <row r="270" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A270" s="3"/>
-      <c r="B270" s="7"/>
+      <c r="A270" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="271" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A271" s="3"/>
-      <c r="B271" s="7"/>
+      <c r="A271" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="272" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A272" s="3"/>
-      <c r="B272" s="7"/>
+      <c r="A272" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="273" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A273" s="3"/>
-      <c r="B273" s="7"/>
+      <c r="A273" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="274" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A274" s="3"/>
-      <c r="B274" s="7"/>
+      <c r="A274" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="275" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A275" s="3"/>
-      <c r="B275" s="7"/>
+      <c r="A275" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="276" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A276" s="3"/>
-      <c r="B276" s="7"/>
+      <c r="A276" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="277" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A277" s="3"/>
-      <c r="B277" s="7"/>
+      <c r="A277" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="278" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A278" s="3"/>
-      <c r="B278" s="7"/>
+      <c r="A278" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B278" s="7" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="279" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A279" s="3"/>
-      <c r="B279" s="7"/>
+      <c r="A279" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B279" s="7" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="280" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A280" s="3"/>
-      <c r="B280" s="7"/>
+      <c r="A280" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B280" s="7" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="281" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A281" s="3"/>
-      <c r="B281" s="7"/>
+      <c r="A281" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="282" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A282" s="3"/>
-      <c r="B282" s="7"/>
+      <c r="A282" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B282" s="7" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="283" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A283" s="3"/>
-      <c r="B283" s="7"/>
+      <c r="A283" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="284" spans="1:2" ht="44.1" customHeight="1">
       <c r="A284" s="3"/>

--- a/Word skill.xlsx
+++ b/Word skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xre22\OneDrive\Desktop\Data sciense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26AF453-90FE-48EA-8C0F-DAFFC8AF6763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C35FD8-21F8-4C28-8C0D-C54B308A41AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="4770" windowWidth="13140" windowHeight="8925" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
+    <workbookView xWindow="15660" yWindow="390" windowWidth="13140" windowHeight="8925" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="535">
   <si>
     <t>Asymmetrical</t>
   </si>
@@ -1072,9 +1072,6 @@
   </si>
   <si>
     <t xml:space="preserve">nifty </t>
-  </si>
-  <si>
-    <t>زیبا</t>
   </si>
   <si>
     <t>inference</t>
@@ -1629,6 +1626,24 @@
   </si>
   <si>
     <t>سبیل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intrinsic </t>
+  </si>
+  <si>
+    <t>زیبا، جالب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moderately </t>
+  </si>
+  <si>
+    <t>نسبتا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surpass </t>
+  </si>
+  <si>
+    <t>پیشی گرفتن</t>
   </si>
 </sst>
 </file>
@@ -2321,8 +2336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8103EE8-8652-4065-9906-2F66BB4C7AFE}">
   <dimension ref="A1:B394"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="B283" sqref="B283"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="B286" sqref="B286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3776,95 +3791,95 @@
         <v>345</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>346</v>
+        <v>530</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="44.1" customHeight="1">
       <c r="A182" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B182" s="15" t="s">
         <v>347</v>
-      </c>
-      <c r="B182" s="15" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="44.1" customHeight="1">
       <c r="A183" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B183" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="44.1" customHeight="1">
       <c r="A184" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B184" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="44.1" customHeight="1">
       <c r="A185" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B185" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="44.1" customHeight="1">
       <c r="A186" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B186" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="44.1" customHeight="1">
       <c r="A187" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B187" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="44.1" customHeight="1">
       <c r="A188" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B188" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="44.1" customHeight="1">
       <c r="A189" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B189" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="44.1" customHeight="1">
       <c r="A190" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B190" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="44.1" customHeight="1">
       <c r="A191" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B191" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="44.1" customHeight="1">
       <c r="A192" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B192" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="44.1" customHeight="1">
@@ -3877,127 +3892,127 @@
     </row>
     <row r="194" spans="1:2" ht="44.1" customHeight="1">
       <c r="A194" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B194" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="44.1" customHeight="1">
       <c r="A195" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B195" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="44.1" customHeight="1">
       <c r="A196" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B196" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="B196" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="44.1" customHeight="1">
       <c r="A197" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B197" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="44.1" customHeight="1">
       <c r="A198" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B198" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="44.1" customHeight="1">
       <c r="A199" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B199" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="B199" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="44.1" customHeight="1">
       <c r="A200" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B200" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="44.1" customHeight="1">
       <c r="A201" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B201" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="44.1" customHeight="1">
       <c r="A202" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B202" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="44.1" customHeight="1">
       <c r="A203" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B203" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="89.25" customHeight="1">
       <c r="A204" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B204" s="16" t="s">
         <v>387</v>
-      </c>
-      <c r="B204" s="16" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="44.1" customHeight="1">
       <c r="A205" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B205" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="B205" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="44.1" customHeight="1">
       <c r="A206" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="44.1" customHeight="1">
       <c r="A207" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B207" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="B207" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="44.1" customHeight="1">
       <c r="A208" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B208" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="B208" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="44.1" customHeight="1">
       <c r="A209" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>268</v>
@@ -4005,18 +4020,18 @@
     </row>
     <row r="210" spans="1:2" ht="44.1" customHeight="1">
       <c r="A210" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="44.1" customHeight="1">
       <c r="A211" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B211" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="44.1" customHeight="1">
@@ -4029,10 +4044,10 @@
     </row>
     <row r="213" spans="1:2" ht="44.1" customHeight="1">
       <c r="A213" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B213" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="B213" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="44.1" customHeight="1">
@@ -4040,79 +4055,79 @@
         <v>333</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="44.1" customHeight="1">
       <c r="A215" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B215" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="B215" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="44.1" customHeight="1">
       <c r="A216" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B216" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="B216" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="44.1" customHeight="1">
       <c r="A217" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B217" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="44.1" customHeight="1">
       <c r="A218" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B218" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="B218" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="44.1" customHeight="1">
       <c r="A219" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B219" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="B219" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="44.1" customHeight="1">
       <c r="A220" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B220" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="B220" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="44.1" customHeight="1">
       <c r="A221" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B221" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="B221" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="44.1" customHeight="1">
       <c r="A222" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B222" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="B222" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="44.1" customHeight="1">
       <c r="A223" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B223" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="B223" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="44.1" customHeight="1">
@@ -4125,23 +4140,23 @@
     </row>
     <row r="225" spans="1:2" ht="44.1" customHeight="1">
       <c r="A225" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B225" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="44.1" customHeight="1">
       <c r="A226" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B226" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="B226" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="44.1" customHeight="1">
       <c r="A227" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B227" s="7" t="s">
         <v>315</v>
@@ -4149,66 +4164,66 @@
     </row>
     <row r="228" spans="1:2" ht="44.1" customHeight="1">
       <c r="A228" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="44.1" customHeight="1">
       <c r="A229" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B229" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="44.1" customHeight="1">
       <c r="A230" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B230" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="B230" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="44.1" customHeight="1">
       <c r="A231" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B231" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="B231" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="44.1" customHeight="1">
       <c r="A232" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B232" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="B232" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="44.1" customHeight="1">
       <c r="A233" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B233" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="44.1" customHeight="1">
       <c r="A234" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="44.1" customHeight="1">
       <c r="A235" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B235" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="B235" s="7" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="44.1" customHeight="1">
@@ -4216,23 +4231,23 @@
         <v>333</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="44.1" customHeight="1">
       <c r="A237" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B237" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="B237" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="44.1" customHeight="1">
       <c r="A238" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B238" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="B238" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="44.1" customHeight="1">
@@ -4240,191 +4255,191 @@
         <v>335</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="44.1" customHeight="1">
       <c r="A240" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B240" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="B240" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="44.1" customHeight="1">
       <c r="A241" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B241" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="B241" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="44.1" customHeight="1">
       <c r="A242" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B242" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="B242" s="7" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="44.1" customHeight="1">
       <c r="A243" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B243" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="B243" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="44.1" customHeight="1">
       <c r="A244" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B244" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="B244" s="7" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="44.1" customHeight="1">
       <c r="A245" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B245" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="B245" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="44.1" customHeight="1">
       <c r="A246" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B246" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="B246" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="44.1" customHeight="1">
       <c r="A247" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B247" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="B247" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="44.1" customHeight="1">
       <c r="A248" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B248" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="B248" s="7" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="44.1" customHeight="1">
       <c r="A249" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B249" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="B249" s="7" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="44.1" customHeight="1">
       <c r="A250" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B250" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="B250" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="44.1" customHeight="1">
       <c r="A251" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B251" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="B251" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="44.1" customHeight="1">
       <c r="A252" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B252" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="B252" s="7" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="44.1" customHeight="1">
       <c r="A253" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B253" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="B253" s="7" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="44.1" customHeight="1">
       <c r="A254" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B254" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="B254" s="7" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="44.1" customHeight="1">
       <c r="A255" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B255" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="87" customHeight="1">
       <c r="A256" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B256" s="17" t="s">
         <v>476</v>
-      </c>
-      <c r="B256" s="17" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="44.1" customHeight="1">
       <c r="A257" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B257" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="B257" s="7" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="44.1" customHeight="1">
       <c r="A258" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B258" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="B258" s="7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="44.1" customHeight="1">
       <c r="A259" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B259" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="B259" s="7" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="44.1" customHeight="1">
       <c r="A260" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B260" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="B260" s="7" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="44.1" customHeight="1">
       <c r="A261" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B261" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="B261" s="7" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="44.1" customHeight="1">
       <c r="A262" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B262" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="B262" s="7" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="44.1" customHeight="1">
@@ -4437,175 +4452,187 @@
     </row>
     <row r="264" spans="1:2" ht="44.1" customHeight="1">
       <c r="A264" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B264" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="B264" s="7" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="44.1" customHeight="1">
       <c r="A265" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B265" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="B265" s="7" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="44.1" customHeight="1">
       <c r="A266" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B266" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="B266" s="7" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="44.1" customHeight="1">
       <c r="A267" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="44.1" customHeight="1">
       <c r="A268" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B268" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="B268" s="7" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="44.1" customHeight="1">
       <c r="A269" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B269" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="B269" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="44.1" customHeight="1">
       <c r="A270" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B270" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="B270" s="7" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="44.1" customHeight="1">
       <c r="A271" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="44.1" customHeight="1">
       <c r="A272" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B272" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="B272" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="44.1" customHeight="1">
       <c r="A273" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B273" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="B273" s="7" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="44.1" customHeight="1">
       <c r="A274" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B274" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="B274" s="7" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="44.1" customHeight="1">
       <c r="A275" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B275" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="B275" s="7" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="44.1" customHeight="1">
       <c r="A276" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B276" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="B276" s="7" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="44.1" customHeight="1">
       <c r="A277" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B277" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="B277" s="7" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="44.1" customHeight="1">
       <c r="A278" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B278" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="B278" s="7" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="44.1" customHeight="1">
       <c r="A279" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B279" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="B279" s="7" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="44.1" customHeight="1">
       <c r="A280" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B280" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="B280" s="7" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="44.1" customHeight="1">
       <c r="A281" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B281" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="B281" s="7" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="44.1" customHeight="1">
       <c r="A282" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B282" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="B282" s="7" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="44.1" customHeight="1">
       <c r="A283" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B283" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="B283" s="7" t="s">
+    </row>
+    <row r="284" spans="1:2" ht="44.1" customHeight="1">
+      <c r="A284" s="3" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A284" s="3"/>
-      <c r="B284" s="7"/>
+      <c r="B284" s="7" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="285" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A285" s="3"/>
-      <c r="B285" s="7"/>
+      <c r="A285" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B285" s="7" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="286" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A286" s="3"/>
-      <c r="B286" s="7"/>
+      <c r="A286" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="287" spans="1:2" ht="44.1" customHeight="1">
       <c r="A287" s="3"/>

--- a/Word skill.xlsx
+++ b/Word skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xre22\OneDrive\Desktop\Data sciense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C35FD8-21F8-4C28-8C0D-C54B308A41AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2228E2-C6EA-491A-B3D7-2ABCB12CF8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15660" yWindow="390" windowWidth="13140" windowHeight="8925" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
+    <workbookView xWindow="15660" yWindow="1710" windowWidth="13140" windowHeight="8925" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="549">
   <si>
     <t>Asymmetrical</t>
   </si>
@@ -1644,6 +1644,48 @@
   </si>
   <si>
     <t>پیشی گرفتن</t>
+  </si>
+  <si>
+    <t>constellation</t>
+  </si>
+  <si>
+    <t>صورت فلکی</t>
+  </si>
+  <si>
+    <t>Cuisine</t>
+  </si>
+  <si>
+    <t>غذا</t>
+  </si>
+  <si>
+    <t>applause</t>
+  </si>
+  <si>
+    <t>تشویق و تمجید</t>
+  </si>
+  <si>
+    <t>inversion</t>
+  </si>
+  <si>
+    <t>وارونگی</t>
+  </si>
+  <si>
+    <t>designate</t>
+  </si>
+  <si>
+    <t>conjunction</t>
+  </si>
+  <si>
+    <t>پیوستگی</t>
+  </si>
+  <si>
+    <t>modifier</t>
+  </si>
+  <si>
+    <t>اصلاح کننده</t>
+  </si>
+  <si>
+    <t>Criteria</t>
   </si>
 </sst>
 </file>
@@ -2336,8 +2378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8103EE8-8652-4065-9906-2F66BB4C7AFE}">
   <dimension ref="A1:B394"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="B286" sqref="B286"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="B294" sqref="B294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4635,36 +4677,68 @@
       </c>
     </row>
     <row r="287" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A287" s="3"/>
-      <c r="B287" s="7"/>
+      <c r="A287" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="288" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A288" s="3"/>
-      <c r="B288" s="7"/>
+      <c r="A288" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B288" s="7" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="289" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A289" s="3"/>
-      <c r="B289" s="7"/>
+      <c r="A289" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="290" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A290" s="3"/>
-      <c r="B290" s="7"/>
+      <c r="A290" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B290" s="7" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="291" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A291" s="3"/>
-      <c r="B291" s="7"/>
+      <c r="A291" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B291" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="292" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A292" s="3"/>
-      <c r="B292" s="7"/>
+      <c r="A292" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="293" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A293" s="3"/>
-      <c r="B293" s="7"/>
+      <c r="A293" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B293" s="7" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="294" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A294" s="3"/>
-      <c r="B294" s="7"/>
+      <c r="A294" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B294" s="7" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="295" spans="1:2" ht="44.1" customHeight="1">
       <c r="A295" s="3"/>

--- a/Word skill.xlsx
+++ b/Word skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xre22\OneDrive\Desktop\Data sciense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2228E2-C6EA-491A-B3D7-2ABCB12CF8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0B36EC-9E96-4C13-AA07-9146834FBE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15660" yWindow="1710" windowWidth="13140" windowHeight="8925" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
+    <workbookView xWindow="21465" yWindow="1320" windowWidth="13140" windowHeight="8925" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="553">
   <si>
     <t>Asymmetrical</t>
   </si>
@@ -1686,6 +1686,18 @@
   </si>
   <si>
     <t>Criteria</t>
+  </si>
+  <si>
+    <t>numerator</t>
+  </si>
+  <si>
+    <t>صورت کسر</t>
+  </si>
+  <si>
+    <t>denominator</t>
+  </si>
+  <si>
+    <t>مخرج</t>
   </si>
 </sst>
 </file>
@@ -2379,7 +2391,7 @@
   <dimension ref="A1:B394"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="B294" sqref="B294"/>
+      <selection activeCell="B296" sqref="B296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4741,12 +4753,20 @@
       </c>
     </row>
     <row r="295" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A295" s="3"/>
-      <c r="B295" s="7"/>
+      <c r="A295" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="296" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A296" s="3"/>
-      <c r="B296" s="7"/>
+      <c r="A296" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B296" s="7" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="297" spans="1:2" ht="44.1" customHeight="1">
       <c r="A297" s="3"/>

--- a/Word skill.xlsx
+++ b/Word skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xre22\OneDrive\Desktop\Data sciense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0B36EC-9E96-4C13-AA07-9146834FBE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD14798-BA51-4551-80C3-958279AC5308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21465" yWindow="1320" windowWidth="13140" windowHeight="8925" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15870" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="583">
   <si>
     <t>Asymmetrical</t>
   </si>
@@ -1698,6 +1698,96 @@
   </si>
   <si>
     <t>مخرج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diameter </t>
+  </si>
+  <si>
+    <t>قطر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extraneous </t>
+  </si>
+  <si>
+    <t>خارجی , غیر اصلی</t>
+  </si>
+  <si>
+    <t>coherent </t>
+  </si>
+  <si>
+    <t>منسجم</t>
+  </si>
+  <si>
+    <t>compelling</t>
+  </si>
+  <si>
+    <t>متقاعد کننده</t>
+  </si>
+  <si>
+    <t>respectively</t>
+  </si>
+  <si>
+    <t>به ترتیب</t>
+  </si>
+  <si>
+    <t>depicted</t>
+  </si>
+  <si>
+    <t>به تصویر کشیده شده است</t>
+  </si>
+  <si>
+    <t>redundant</t>
+  </si>
+  <si>
+    <t>زائد</t>
+  </si>
+  <si>
+    <t>disposal</t>
+  </si>
+  <si>
+    <t>دسترس</t>
+  </si>
+  <si>
+    <t>narrative</t>
+  </si>
+  <si>
+    <t>روایت</t>
+  </si>
+  <si>
+    <t>collision</t>
+  </si>
+  <si>
+    <t>برخورد</t>
+  </si>
+  <si>
+    <t>fluctuate</t>
+  </si>
+  <si>
+    <t>نوسان داشته باشد</t>
+  </si>
+  <si>
+    <t>restricted</t>
+  </si>
+  <si>
+    <t>محصور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">circumvent </t>
+  </si>
+  <si>
+    <t>دور زدن</t>
+  </si>
+  <si>
+    <t>fluctuation</t>
+  </si>
+  <si>
+    <t>نوسان</t>
+  </si>
+  <si>
+    <t>acquaintance</t>
+  </si>
+  <si>
+    <t>آشنایی</t>
   </si>
 </sst>
 </file>
@@ -2390,8 +2480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8103EE8-8652-4065-9906-2F66BB4C7AFE}">
   <dimension ref="A1:B394"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="B296" sqref="B296"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="B311" sqref="B311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4769,64 +4859,124 @@
       </c>
     </row>
     <row r="297" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A297" s="3"/>
-      <c r="B297" s="7"/>
+      <c r="A297" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="298" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A298" s="3"/>
-      <c r="B298" s="7"/>
+      <c r="A298" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="299" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A299" s="3"/>
-      <c r="B299" s="7"/>
+      <c r="A299" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B299" s="7" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="300" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A300" s="3"/>
-      <c r="B300" s="7"/>
+      <c r="A300" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B300" s="7" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="301" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A301" s="3"/>
-      <c r="B301" s="7"/>
+      <c r="A301" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B301" s="7" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="302" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A302" s="3"/>
-      <c r="B302" s="7"/>
+      <c r="A302" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B302" s="7" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="303" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A303" s="3"/>
-      <c r="B303" s="7"/>
+      <c r="A303" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B303" s="7" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="304" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A304" s="3"/>
-      <c r="B304" s="7"/>
+      <c r="A304" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B304" s="7" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="305" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A305" s="3"/>
-      <c r="B305" s="7"/>
+      <c r="A305" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B305" s="7" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="306" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A306" s="3"/>
-      <c r="B306" s="7"/>
+      <c r="A306" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B306" s="7" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="307" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A307" s="3"/>
-      <c r="B307" s="7"/>
+      <c r="A307" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B307" s="7" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="308" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A308" s="3"/>
-      <c r="B308" s="7"/>
+      <c r="A308" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B308" s="7" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="309" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A309" s="3"/>
-      <c r="B309" s="7"/>
+      <c r="A309" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B309" s="7" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="310" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A310" s="3"/>
-      <c r="B310" s="7"/>
+      <c r="A310" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B310" s="7" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="311" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A311" s="3"/>
-      <c r="B311" s="7"/>
+      <c r="A311" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B311" s="7" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="312" spans="1:2" ht="44.1" customHeight="1">
       <c r="A312" s="3"/>

--- a/Word skill.xlsx
+++ b/Word skill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xre22\OneDrive\Desktop\Data sciense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xre22\OneDrive\Desktop\Data sciense\My shorthand and cheetsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD14798-BA51-4551-80C3-958279AC5308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9594E033-B6F8-43A4-9EBD-9E6ED56EF4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15870" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="599">
   <si>
     <t>Asymmetrical</t>
   </si>
@@ -1788,13 +1788,63 @@
   </si>
   <si>
     <t>آشنایی</t>
+  </si>
+  <si>
+    <t>conduct </t>
+  </si>
+  <si>
+    <t>هدایت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior </t>
+  </si>
+  <si>
+    <t>قبل از</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attendance </t>
+  </si>
+  <si>
+    <t>حضور</t>
+  </si>
+  <si>
+    <t>diagonal</t>
+  </si>
+  <si>
+    <t>مورب</t>
+  </si>
+  <si>
+    <t>collinearity</t>
+  </si>
+  <si>
+    <t> situation where two or more predictor variables
+ are closely related to one another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classification </t>
+  </si>
+  <si>
+    <t>طبقه بندی</t>
+  </si>
+  <si>
+    <t>multicollinearity</t>
+  </si>
+  <si>
+    <t>statistical concept where several independent
+ variables in a model are correlated</t>
+  </si>
+  <si>
+    <t>elongated</t>
+  </si>
+  <si>
+    <t>دراز</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1871,6 +1921,12 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="B Nazanin"/>
       <charset val="178"/>
@@ -1972,7 +2028,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2024,6 +2080,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2481,7 +2540,7 @@
   <dimension ref="A1:B394"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="B311" sqref="B311"/>
+      <selection activeCell="B319" sqref="B319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4979,36 +5038,68 @@
       </c>
     </row>
     <row r="312" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A312" s="3"/>
-      <c r="B312" s="7"/>
+      <c r="A312" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B312" s="7" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="313" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A313" s="3"/>
-      <c r="B313" s="7"/>
+      <c r="A313" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B313" s="7" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="314" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A314" s="3"/>
-      <c r="B314" s="7"/>
+      <c r="A314" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B314" s="7" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="315" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A315" s="3"/>
-      <c r="B315" s="7"/>
+      <c r="A315" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B315" s="7" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="316" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A316" s="3"/>
-      <c r="B316" s="7"/>
+      <c r="A316" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B316" s="19" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="317" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A317" s="3"/>
-      <c r="B317" s="7"/>
-    </row>
-    <row r="318" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A318" s="3"/>
-      <c r="B318" s="7"/>
+      <c r="A317" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B317" s="7" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="56.25" customHeight="1">
+      <c r="A318" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B318" s="19" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="319" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A319" s="3"/>
-      <c r="B319" s="7"/>
+      <c r="A319" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B319" s="7" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="320" spans="1:2" ht="44.1" customHeight="1">
       <c r="A320" s="3"/>

--- a/Word skill.xlsx
+++ b/Word skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xre22\OneDrive\Desktop\Data sciense\My shorthand and cheetsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9594E033-B6F8-43A4-9EBD-9E6ED56EF4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1DCD6C-7C37-4F08-965C-8D36B9066D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="605">
   <si>
     <t>Asymmetrical</t>
   </si>
@@ -1838,6 +1838,24 @@
   </si>
   <si>
     <t>دراز</t>
+  </si>
+  <si>
+    <t>nitty-gritty</t>
+  </si>
+  <si>
+    <t>most important and basic facts or details about something</t>
+  </si>
+  <si>
+    <t>compliance</t>
+  </si>
+  <si>
+    <t>انطباق , برابری</t>
+  </si>
+  <si>
+    <t>misuse</t>
+  </si>
+  <si>
+    <t>سوء استفاده</t>
   </si>
 </sst>
 </file>
@@ -2540,7 +2558,7 @@
   <dimension ref="A1:B394"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="B319" sqref="B319"/>
+      <selection activeCell="B322" sqref="B322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5102,16 +5120,28 @@
       </c>
     </row>
     <row r="320" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A320" s="3"/>
-      <c r="B320" s="7"/>
+      <c r="A320" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B320" s="19" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="321" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A321" s="3"/>
-      <c r="B321" s="7"/>
+      <c r="A321" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B321" s="7" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="322" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A322" s="3"/>
-      <c r="B322" s="7"/>
+      <c r="A322" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B322" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="323" spans="1:2" ht="44.1" customHeight="1">
       <c r="A323" s="3"/>

--- a/Word skill.xlsx
+++ b/Word skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xre22\OneDrive\Desktop\Data sciense\My shorthand and cheetsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1DCD6C-7C37-4F08-965C-8D36B9066D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE80004F-A396-4F0B-AA8B-9CC520AFFE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="613">
   <si>
     <t>Asymmetrical</t>
   </si>
@@ -1856,6 +1856,30 @@
   </si>
   <si>
     <t>سوء استفاده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enclosure </t>
+  </si>
+  <si>
+    <t>محفظه</t>
+  </si>
+  <si>
+    <t>closure</t>
+  </si>
+  <si>
+    <t>بسته</t>
+  </si>
+  <si>
+    <t>Proximity</t>
+  </si>
+  <si>
+    <t>نزدیکی</t>
+  </si>
+  <si>
+    <t>Refinement</t>
+  </si>
+  <si>
+    <t>اصلاح</t>
   </si>
 </sst>
 </file>
@@ -2557,8 +2581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8103EE8-8652-4065-9906-2F66BB4C7AFE}">
   <dimension ref="A1:B394"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="B322" sqref="B322"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="B326" sqref="B326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5144,20 +5168,36 @@
       </c>
     </row>
     <row r="323" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A323" s="3"/>
-      <c r="B323" s="7"/>
+      <c r="A323" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B323" s="7" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="324" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A324" s="3"/>
-      <c r="B324" s="7"/>
+      <c r="A324" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B324" s="7" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="325" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A325" s="3"/>
-      <c r="B325" s="7"/>
+      <c r="A325" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B325" s="7" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="326" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A326" s="3"/>
-      <c r="B326" s="7"/>
+      <c r="A326" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B326" s="7" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="327" spans="1:2" ht="44.1" customHeight="1">
       <c r="A327" s="3"/>

--- a/Word skill.xlsx
+++ b/Word skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xre22\OneDrive\Desktop\Data sciense\My shorthand and cheetsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE80004F-A396-4F0B-AA8B-9CC520AFFE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A873CC53-FFF1-46D0-A72E-0830DF0D482D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="615">
   <si>
     <t>Asymmetrical</t>
   </si>
@@ -1880,6 +1880,12 @@
   </si>
   <si>
     <t>اصلاح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intended </t>
+  </si>
+  <si>
+    <t>مورد نظر</t>
   </si>
 </sst>
 </file>
@@ -2582,7 +2588,7 @@
   <dimension ref="A1:B394"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="B326" sqref="B326"/>
+      <selection activeCell="B327" sqref="B327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5200,8 +5206,12 @@
       </c>
     </row>
     <row r="327" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A327" s="3"/>
-      <c r="B327" s="7"/>
+      <c r="A327" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B327" s="7" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="328" spans="1:2" ht="44.1" customHeight="1">
       <c r="A328" s="3"/>

--- a/Word skill.xlsx
+++ b/Word skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xre22\OneDrive\Desktop\Data sciense\My shorthand and cheetsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A873CC53-FFF1-46D0-A72E-0830DF0D482D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86503F8C-7965-49CD-B9B9-CECE3E7B5C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="627">
   <si>
     <t>Asymmetrical</t>
   </si>
@@ -1886,6 +1886,42 @@
   </si>
   <si>
     <t>مورد نظر</t>
+  </si>
+  <si>
+    <t>abundance </t>
+  </si>
+  <si>
+    <t>فراوانی</t>
+  </si>
+  <si>
+    <t>persistence</t>
+  </si>
+  <si>
+    <t>ماندگاری, سماجت</t>
+  </si>
+  <si>
+    <t>implicit</t>
+  </si>
+  <si>
+    <t>suggested though not directly expressed.</t>
+  </si>
+  <si>
+    <t>ترتیب زمانی و قوع</t>
+  </si>
+  <si>
+    <t>chronological</t>
+  </si>
+  <si>
+    <t>vintage</t>
+  </si>
+  <si>
+    <t>قدیمی</t>
+  </si>
+  <si>
+    <t>projections</t>
+  </si>
+  <si>
+    <t>طرح ها</t>
   </si>
 </sst>
 </file>
@@ -2587,8 +2623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8103EE8-8652-4065-9906-2F66BB4C7AFE}">
   <dimension ref="A1:B394"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="B327" sqref="B327"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="B333" sqref="B333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5214,28 +5250,52 @@
       </c>
     </row>
     <row r="328" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A328" s="3"/>
-      <c r="B328" s="7"/>
+      <c r="A328" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B328" s="7" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="329" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A329" s="3"/>
-      <c r="B329" s="7"/>
+      <c r="A329" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B329" s="7" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="330" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A330" s="3"/>
-      <c r="B330" s="7"/>
+      <c r="A330" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B330" s="7" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="331" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A331" s="3"/>
-      <c r="B331" s="7"/>
+      <c r="A331" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B331" s="7" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="332" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A332" s="3"/>
-      <c r="B332" s="7"/>
+      <c r="A332" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B332" s="7" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="333" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A333" s="3"/>
-      <c r="B333" s="7"/>
+      <c r="A333" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B333" s="7" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="334" spans="1:2" ht="44.1" customHeight="1">
       <c r="A334" s="3"/>

--- a/Word skill.xlsx
+++ b/Word skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xre22\OneDrive\Desktop\Data sciense\My shorthand and cheetsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86503F8C-7965-49CD-B9B9-CECE3E7B5C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40C44D0-4318-4C6A-B8B8-BC03FD43B3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15870" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="635">
   <si>
     <t>Asymmetrical</t>
   </si>
@@ -1922,6 +1922,30 @@
   </si>
   <si>
     <t>طرح ها</t>
+  </si>
+  <si>
+    <t>obsolete</t>
+  </si>
+  <si>
+    <t>منسوخ شده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expenditure </t>
+  </si>
+  <si>
+    <t>مخارج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">principal </t>
+  </si>
+  <si>
+    <t>اصلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precautions </t>
+  </si>
+  <si>
+    <t>موارد احتیاط</t>
   </si>
 </sst>
 </file>
@@ -2623,8 +2647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8103EE8-8652-4065-9906-2F66BB4C7AFE}">
   <dimension ref="A1:B394"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="B333" sqref="B333"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="B337" sqref="B337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5298,20 +5322,36 @@
       </c>
     </row>
     <row r="334" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A334" s="3"/>
-      <c r="B334" s="7"/>
+      <c r="A334" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B334" s="7" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="335" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A335" s="3"/>
-      <c r="B335" s="7"/>
+      <c r="A335" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B335" s="7" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="336" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A336" s="3"/>
-      <c r="B336" s="7"/>
+      <c r="A336" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B336" s="7" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="337" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A337" s="3"/>
-      <c r="B337" s="7"/>
+      <c r="A337" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B337" s="7" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="338" spans="1:2" ht="44.1" customHeight="1">
       <c r="A338" s="3"/>

--- a/Word skill.xlsx
+++ b/Word skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xre22\OneDrive\Desktop\Data sciense\My shorthand and cheetsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40C44D0-4318-4C6A-B8B8-BC03FD43B3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB9CE15-58EA-4238-B021-A414BC7E378B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15870" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="640">
   <si>
     <t>Asymmetrical</t>
   </si>
@@ -1946,6 +1946,21 @@
   </si>
   <si>
     <t>موارد احتیاط</t>
+  </si>
+  <si>
+    <t>caveat</t>
+  </si>
+  <si>
+    <t>پیش بینی احتیاطی</t>
+  </si>
+  <si>
+    <t>Dedicated</t>
+  </si>
+  <si>
+    <t>devoted , اختصاص داده</t>
+  </si>
+  <si>
+    <t>conduct</t>
   </si>
 </sst>
 </file>
@@ -2647,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8103EE8-8652-4065-9906-2F66BB4C7AFE}">
   <dimension ref="A1:B394"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="B337" sqref="B337"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="B341" sqref="B341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5354,20 +5369,36 @@
       </c>
     </row>
     <row r="338" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A338" s="3"/>
-      <c r="B338" s="7"/>
+      <c r="A338" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="B338" s="7" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="339" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A339" s="3"/>
-      <c r="B339" s="7"/>
+      <c r="A339" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B339" s="7" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="340" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A340" s="3"/>
-      <c r="B340" s="7"/>
+      <c r="A340" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B340" s="7" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="341" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A341" s="3"/>
-      <c r="B341" s="7"/>
+      <c r="A341" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="B341" s="7" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="342" spans="1:2" ht="44.1" customHeight="1">
       <c r="A342" s="3"/>

--- a/Word skill.xlsx
+++ b/Word skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xre22\OneDrive\Desktop\Data sciense\My shorthand and cheetsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB9CE15-58EA-4238-B021-A414BC7E378B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD5775E-C0FC-497F-A51F-62D96FD9AE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15870" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="642">
   <si>
     <t>Asymmetrical</t>
   </si>
@@ -1961,6 +1961,12 @@
   </si>
   <si>
     <t>conduct</t>
+  </si>
+  <si>
+    <t>grasp </t>
+  </si>
+  <si>
+    <t>فهم</t>
   </si>
 </sst>
 </file>
@@ -2663,7 +2669,7 @@
   <dimension ref="A1:B394"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="B341" sqref="B341"/>
+      <selection activeCell="B342" sqref="B342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5401,8 +5407,12 @@
       </c>
     </row>
     <row r="342" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A342" s="3"/>
-      <c r="B342" s="7"/>
+      <c r="A342" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B342" s="7" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="343" spans="1:2" ht="44.1" customHeight="1">
       <c r="A343" s="3"/>

--- a/Word skill.xlsx
+++ b/Word skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xre22\OneDrive\Desktop\Data sciense\My shorthand and cheetsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD5775E-C0FC-497F-A51F-62D96FD9AE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D4B619-5762-4D94-9888-A13BEF6B4A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15870" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="646">
   <si>
     <t>Asymmetrical</t>
   </si>
@@ -1967,6 +1967,18 @@
   </si>
   <si>
     <t>فهم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grossing </t>
+  </si>
+  <si>
+    <t>سودآور</t>
+  </si>
+  <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>جریان</t>
   </si>
 </sst>
 </file>
@@ -2669,7 +2681,7 @@
   <dimension ref="A1:B394"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="B342" sqref="B342"/>
+      <selection activeCell="B344" sqref="B344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5415,12 +5427,20 @@
       </c>
     </row>
     <row r="343" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A343" s="3"/>
-      <c r="B343" s="7"/>
+      <c r="A343" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B343" s="7" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="344" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A344" s="3"/>
-      <c r="B344" s="7"/>
+      <c r="A344" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B344" s="7" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="345" spans="1:2" ht="44.1" customHeight="1">
       <c r="A345" s="3"/>

--- a/Word skill.xlsx
+++ b/Word skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xre22\OneDrive\Desktop\Data sciense\My shorthand and cheetsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D4B619-5762-4D94-9888-A13BEF6B4A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65499D0-4F4E-49D0-AFF4-4F6721FBB167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{FBACF5EB-20B7-4407-9D0F-78415D039E96}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="649">
   <si>
     <t>Asymmetrical</t>
   </si>
@@ -1979,6 +1979,15 @@
   </si>
   <si>
     <t>جریان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fluctuation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">consequence </t>
+  </si>
+  <si>
+    <t>نتیجه منطقی</t>
   </si>
 </sst>
 </file>
@@ -2680,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8103EE8-8652-4065-9906-2F66BB4C7AFE}">
   <dimension ref="A1:B394"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="B344" sqref="B344"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="A347" sqref="A347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5443,12 +5452,20 @@
       </c>
     </row>
     <row r="345" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A345" s="3"/>
-      <c r="B345" s="7"/>
+      <c r="A345" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B345" s="7" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="346" spans="1:2" ht="44.1" customHeight="1">
-      <c r="A346" s="3"/>
-      <c r="B346" s="7"/>
+      <c r="A346" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B346" s="7" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="347" spans="1:2" ht="44.1" customHeight="1">
       <c r="A347" s="3"/>
